--- a/biology/Botanique/Liste_des_plantes_sauvages_du_Sahara/Liste_des_plantes_sauvages_du_Sahara.xlsx
+++ b/biology/Botanique/Liste_des_plantes_sauvages_du_Sahara/Liste_des_plantes_sauvages_du_Sahara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les plantes sauvages du Sahara.
 La liste des Ptéridophytes est extraite de Anthelme et al., 2011.
@@ -513,13 +525,15 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Actiniopteris radiata (Sw.) Link
 Adiantum capillus-veneris L.
 Rochers suintants, grottes, orifice des foggaras.
-Çà et là : Béni-Abbès, Touat, Hoggar et annexes, Tassili n'Ajjer, Fezzan, Sahara occidental[1], Mauritanie
+Çà et là : Béni-Abbès, Touat, Hoggar et annexes, Tassili n'Ajjer, Fezzan, Sahara occidental, Mauritanie
 Asplenium adiantum-nigrum L.
 Tibesti, très rare, au-dessus de 3 000 m.
 Asplenium aethiopicum (Burm.f.) Bech. sens. lat.
@@ -570,19 +584,21 @@
           <t>Gymnospermes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cupressus dupreziana A.Camus
-Endémique du Tassili n'Ajjer[2].
+Endémique du Tassili n'Ajjer.
 Les 233 arbres existants sont répartis sur une bande de 12 km de long par 6 km (en moyenne) de largeur, le long de la frontière sud-ouest du plateau du Tassili.
-Espèce en danger selon la Liste rouge de l'UICN[3]
-Ephedra alata Decne. subsp. alata[4]
+Espèce en danger selon la Liste rouge de l'UICN
+Ephedra alata Decne. subsp. alata
 Ephedra alata subsp. alenda (Stapf) Trab.
 Ephedra altissima Desf.
 Ephedra fragilis Desf.
 Ephedra major Host
-Ephedra rollandii Maire[5]
-Sahara occidental : Cheggar, Bir Moghreïn, Adrar (Mauritanie)[6]
+Ephedra rollandii Maire
+Sahara occidental : Cheggar, Bir Moghreïn, Adrar (Mauritanie)
 Ephedra tilhoana Maire</t>
         </is>
       </c>
@@ -611,28 +627,30 @@
           <t>Angiospermes monocotylédones</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Albuca amoena (Batt.) J.C.Manning &amp; Goldblatt[7]
-Andropogon distachyos[8] L.
+Albuca amoena (Batt.) J.C.Manning &amp; Goldblatt
+Andropogon distachyos L.
 Aristida adscensionis L.
-Aristida congesta Roem. &amp; Schult. subsp. congesta[9]
-Aristida mutabilis Trin. &amp; Rupr[10].
-Aristida sieberiana[11] Trin. ex Spreng.
+Aristida congesta Roem. &amp; Schult. subsp. congesta
+Aristida mutabilis Trin. &amp; Rupr.
+Aristida sieberiana Trin. ex Spreng.
 Endémique saharien.
 Asparagus altissimus Munby
 Asphodelus refractus Boiss.
 Asphodelus tenuifolius Cav.
-Bolboschoenus maritimus (L.) Palla subsp. maritimus[12]
-Bulbostylis densa subsp. afromontana (Lye) R.W.Haines[13]
+Bolboschoenus maritimus (L.) Palla subsp. maritimus
+Bulbostylis densa subsp. afromontana (Lye) R.W.Haines
 Cenchrus biflorus Roxb.
-Cenchrus ciliaris[14] L.
-Cenchrus prieurii (Kunth) Maire[15]
+Cenchrus ciliaris L.
+Cenchrus prieurii (Kunth) Maire
 Chrysopogon aucheri (Boiss.) Stapf
-Colchicum gramineum (Cav.) J.C.Manning &amp; Vinn[16].
+Colchicum gramineum (Cav.) J.C.Manning &amp; Vinn.
 Cymbopogon schoenanthus (L.) Spreng.
-Cyperus alopecuroides Rottb[17].
+Cyperus alopecuroides Rottb.
 Cyperus articulatus L.
 Cyperus capitatus Vand.
 Cyperus conglomeratus Rottb.
@@ -642,49 +660,49 @@
 Cyperus iria L.
 Cyperus laevigatus L.
 Cyperus rotundus L.
-Dichanthium annulatum (Forssk.) Stapf[18]
-Dichanthium foveolatum (Delile) Roberty[19]
-Dichanthium ischaemum (L.) Roberty[20]
-Digitaria bicornis (Lam.) Roem. &amp; Schult[21].
+Dichanthium annulatum (Forssk.) Stapf
+Dichanthium foveolatum (Delile) Roberty
+Dichanthium ischaemum (L.) Roberty
+Digitaria bicornis (Lam.) Roem. &amp; Schult.
 Dipcadi longifolium (Lindl.) Baker
 Dipcadi serotinum (L.) Medik.
-Drimia noctiflora (Batt. &amp; Trab.) Stearn[22]
-Endémique saharien[23].
+Drimia noctiflora (Batt. &amp; Trab.) Stearn
+Endémique saharien.
 Echinochloa colona (L.) Link
 Eleocharis caduca (Delile) Schult.
 Eleocharis palustris (L.) Roem. &amp; Schult.
-Elionurus royleanus Nees ex A.Rich[24].
+Elionurus royleanus Nees ex A.Rich.
 Fimbristylis dipsacea (Rottb.) C.B.Clarke
 Fimbristylis ferruginea (L.) Vahl
 Fimbristylis tenera Schult.
 Fuirena umbellata Rottb.
 Hyparrhenia hirta (L.) Stapf
 Hyphaene thebaica (L.) Mart.
-Imperata cylindrica (L.) Raeusch[25].
+Imperata cylindrica (L.) Raeusch.
 Juncus acutus L.
-Juncus articulatus[26] L.
+Juncus articulatus L.
 Juncus bufonius L.
 Juncus capitatus Weigel
 Juncus maritimus Lam.
 Juncus obtusiflorus Ehrh.
 Juncus punctorius L.f.
 Juncus subulatus Forssk.
-Kyllinga controversa Steud[27].
-Lasiurus scindicus Henrard[28]
+Kyllinga controversa Steud.
+Lasiurus scindicus Henrard
 Leersia hexandra Sw.
 Lemna gibba L.
 Lemna minor L.
 Lygeum spartum L.
-Mariscus congestus (Vahl) C.B.Clarke[29]
+Mariscus congestus (Vahl) C.B.Clarke
 Najas marina subsp. armata (H.Lindb.) Horn = N. major All.
 Najas minor All.
 Pancratium trianthum Herb.
 Panicum repens L.
 Panicum turgidum Forssk.
-Pennisetum divisum (Forssk. ex J.F.Gmel.) Henrard[30]
-Pennisetum orientale A.Rich[31].
+Pennisetum divisum (Forssk. ex J.F.Gmel.) Henrard
+Pennisetum orientale A.Rich.
 Pennisetum setaceum subsp. asperifolium (Desf.) Maire
-Pennisetum violaceum (Lam.) Rich[32].
+Pennisetum violaceum (Lam.) Rich.
 Phalaris canariensis L.
 Phalaris minor Retz.
 Phoenix dactylifera L.
@@ -692,33 +710,33 @@
 Potamogeton nodosus Poir.
 Potamogeton pectinatus L.
 Potamogeton perfoliatus L.
-Potamogeton pusillus[33] L.
+Potamogeton pusillus L.
 Potamogeton schweinfurthii A.Benn.
-Pycreus mundtii Nees[34]
+Pycreus mundtii Nees
 Ruppia maritima L.
-Schoenoplectus lacustris (L.) Palla[35]
+Schoenoplectus lacustris (L.) Palla
 Schoenus nigricans L.
-Scirpoides holoschoenus (L.) Soják[36]
+Scirpoides holoschoenus (L.) Soják
 Setaria verticillata (L.) P.Beauv.
 Stipa barbata Desf.
-Stipa capensis Thunb[37].
+Stipa capensis Thunb.
 Stipa parviflora Desf.
 Stipa tenacissima L.
-Stipagrostis acutiflora (Trin. &amp; Rupr.) De Winter[38]
+Stipagrostis acutiflora (Trin. &amp; Rupr.) De Winter
 Endémique saharien.
-Stipagrostis brachyathera (Coss. &amp; Durieu) De Winter[39]
-Stipagrostis ciliata (Desf.) De Winter[40]
-Stipagrostis foexiana (Maire &amp; Wilczek) De Winter[41]
-Stipagrostis hirtigluma (Steud. ex Trin. &amp; Rupr.) De Winter subsp. hirtigluma[42]
-Stipagrostis obtusa (Delile) Nees[43]
+Stipagrostis brachyathera (Coss. &amp; Durieu) De Winter
+Stipagrostis ciliata (Desf.) De Winter
+Stipagrostis foexiana (Maire &amp; Wilczek) De Winter
+Stipagrostis hirtigluma (Steud. ex Trin. &amp; Rupr.) De Winter subsp. hirtigluma
+Stipagrostis obtusa (Delile) Nees
 Endémique saharien.
-Stipagrostis plumosa (L.) Munro ex T.Anderson[44]
-Stipagrostis plumosa subsp. seminuda (Trin. &amp; Rupr.) H.Scholz[45]
-Stipagrostis pungens (Desf.) De Winter subsp. pungens[46]
-Stipagrostis sahelica (Trab.) De Winter[47]
+Stipagrostis plumosa (L.) Munro ex T.Anderson
+Stipagrostis plumosa subsp. seminuda (Trin. &amp; Rupr.) H.Scholz
+Stipagrostis pungens (Desf.) De Winter subsp. pungens
+Stipagrostis sahelica (Trab.) De Winter
 Tragus racemosus (L.) All.
 Tricholaena teneriffae (L.f.) Link
-Tripidium ravennae (L.) H.Scholz[48]
+Tripidium ravennae (L.) H.Scholz
 Typha angustifolia L.
 Typha elephantina Roxb.
 Vallisneria spiralis L.
@@ -751,10 +769,12 @@
           <t>Angiospermes dicotylédones</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aptosimum pumilum[49] L.
+Aptosimum pumilum L.
 </t>
         </is>
       </c>
